--- a/datos/p_s.xlsx
+++ b/datos/p_s.xlsx
@@ -287,7 +287,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2">
-        <v>1.7769663842105263E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="3">
@@ -295,7 +295,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2">
-        <v>1.7769663842105263E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="4">
@@ -303,7 +303,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2">
-        <v>1.7769663842105263E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="5">
@@ -311,7 +311,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="6">
@@ -319,7 +319,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="7">
@@ -327,7 +327,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="8">
@@ -335,7 +335,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="9">
@@ -343,7 +343,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="10">
@@ -351,7 +351,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="11">
@@ -359,7 +359,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="12">
@@ -367,7 +367,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="13">
@@ -375,7 +375,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="14">
@@ -383,7 +383,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="15">
@@ -391,7 +391,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="16">
@@ -399,7 +399,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="17">
@@ -407,7 +407,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="18">
@@ -415,7 +415,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="19">
@@ -423,7 +423,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="20">
@@ -431,7 +431,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="21">
@@ -439,7 +439,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="22">
@@ -447,7 +447,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="23">
@@ -455,7 +455,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="24">
@@ -463,7 +463,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="25">
@@ -471,7 +471,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="26">
@@ -479,7 +479,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="27">
@@ -487,7 +487,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="28">
@@ -495,7 +495,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="29">
@@ -503,7 +503,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="30">
@@ -511,7 +511,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="31">
@@ -519,7 +519,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="32">
@@ -527,7 +527,7 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="33">
@@ -535,7 +535,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="34">
@@ -543,7 +543,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="35">
@@ -551,7 +551,7 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="36">
@@ -559,7 +559,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="37">
@@ -567,7 +567,7 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="38">
@@ -575,7 +575,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
     <row r="39">
@@ -583,7 +583,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2">
-        <v>1.77696638421053E10</v>
+        <v>1789312.6414364376</v>
       </c>
     </row>
   </sheetData>
